--- a/Crawling/crawling_data/day_genie/day_genie_20220107.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220107.xlsx
@@ -208,8 +208,7 @@
     <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>Blueming</t>
